--- a/PricerAndQutation/OptionPricer_v2_20180426.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180426.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -1568,6 +1568,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="12" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1592,17 +1593,11 @@
     <xf numFmtId="14" fontId="32" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1613,22 +1608,22 @@
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1636,6 +1631,12 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1646,7 +1647,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1670,14 +1670,14 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>51910</v>
+        <v>51950</v>
         <stp/>
         <stp>cu1808</stp>
         <stp>LastPrice</stp>
         <tr r="P18" s="9"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>14635</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1685,22 +1685,22 @@
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>467.5</v>
+        <v>460.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
         <tr r="P21" s="9"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3593</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3954</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -2002,7 +2002,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W2" sqref="W2:W3"/>
     </sheetView>
   </sheetViews>
@@ -2029,11 +2029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
@@ -2682,9 +2682,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37:M37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2699,75 +2699,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="135"/>
+      <c r="C1" s="132"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="G3" s="133" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="G3" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="L3" s="134" t="s">
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="L3" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="Q3" s="133" t="s">
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="Q3" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="G4" s="126" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="G4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="L4" s="126" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="L4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="Q4" s="126" t="s">
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="Q4" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
-      <c r="G5" s="130" t="s">
+      <c r="C5" s="131"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="136"/>
+      <c r="G5" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="130"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -2776,360 +2776,360 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="130" t="s">
+      <c r="Q5" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="130"/>
+      <c r="R5" s="131"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131" t="s">
+      <c r="C6" s="131"/>
+      <c r="D6" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="132"/>
-      <c r="G6" s="130" t="s">
+      <c r="E6" s="130"/>
+      <c r="G6" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="132"/>
-      <c r="L6" s="130" t="s">
+      <c r="H6" s="131"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="L6" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="130"/>
-      <c r="N6" s="131" t="s">
+      <c r="M6" s="131"/>
+      <c r="N6" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="132"/>
-      <c r="Q6" s="130" t="s">
+      <c r="O6" s="130"/>
+      <c r="Q6" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="130"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="132"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="130"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131" t="s">
+      <c r="C7" s="131"/>
+      <c r="D7" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="132"/>
-      <c r="G7" s="130" t="s">
+      <c r="E7" s="130"/>
+      <c r="G7" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
-      <c r="L7" s="130" t="s">
+      <c r="H7" s="131"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="130"/>
+      <c r="L7" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="130"/>
-      <c r="N7" s="131" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="132"/>
-      <c r="Q7" s="130" t="s">
+      <c r="O7" s="130"/>
+      <c r="Q7" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="130"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="132"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="130"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131">
+      <c r="C8" s="131"/>
+      <c r="D8" s="129">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="G8" s="130" t="s">
+      <c r="E8" s="130"/>
+      <c r="G8" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="L8" s="130" t="s">
+      <c r="H8" s="131"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
+      <c r="L8" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="130"/>
-      <c r="N8" s="131">
+      <c r="M8" s="131"/>
+      <c r="N8" s="129">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="132"/>
-      <c r="Q8" s="130" t="s">
+      <c r="O8" s="130"/>
+      <c r="Q8" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="130"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="132"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="130"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="132"/>
-      <c r="G9" s="130" t="s">
+      <c r="E9" s="130"/>
+      <c r="G9" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
-      <c r="L9" s="130" t="s">
+      <c r="H9" s="131"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
+      <c r="L9" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="130"/>
-      <c r="N9" s="131" t="s">
+      <c r="M9" s="131"/>
+      <c r="N9" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="132"/>
-      <c r="Q9" s="130" t="s">
+      <c r="O9" s="130"/>
+      <c r="Q9" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="130"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="132"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="130"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131">
+      <c r="C10" s="131"/>
+      <c r="D10" s="129">
         <v>43084</v>
       </c>
-      <c r="E10" s="132"/>
+      <c r="E10" s="130"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-      <c r="L10" s="130" t="s">
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="L10" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="130"/>
-      <c r="N10" s="131">
+      <c r="M10" s="131"/>
+      <c r="N10" s="129">
         <v>43084</v>
       </c>
-      <c r="O10" s="132"/>
+      <c r="O10" s="130"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="132"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="130"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131">
+      <c r="C11" s="131"/>
+      <c r="D11" s="129">
         <v>3935</v>
       </c>
-      <c r="E11" s="132"/>
-      <c r="G11" s="130" t="s">
+      <c r="E11" s="130"/>
+      <c r="G11" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-      <c r="L11" s="130" t="s">
+      <c r="H11" s="131"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
+      <c r="L11" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="130"/>
-      <c r="N11" s="131">
+      <c r="M11" s="131"/>
+      <c r="N11" s="129">
         <v>3935</v>
       </c>
-      <c r="O11" s="132"/>
-      <c r="Q11" s="130" t="s">
+      <c r="O11" s="130"/>
+      <c r="Q11" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="130"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="132"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="130"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131">
+      <c r="C12" s="131"/>
+      <c r="D12" s="129">
         <v>3800</v>
       </c>
-      <c r="E12" s="132"/>
-      <c r="G12" s="130" t="s">
+      <c r="E12" s="130"/>
+      <c r="G12" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-      <c r="L12" s="130" t="s">
+      <c r="H12" s="131"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
+      <c r="L12" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="130"/>
-      <c r="N12" s="131">
+      <c r="M12" s="131"/>
+      <c r="N12" s="129">
         <v>3800</v>
       </c>
-      <c r="O12" s="132"/>
-      <c r="Q12" s="130" t="s">
+      <c r="O12" s="130"/>
+      <c r="Q12" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="130"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="132"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="130"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131">
+      <c r="C13" s="131"/>
+      <c r="D13" s="129">
         <v>61</v>
       </c>
-      <c r="E13" s="132"/>
-      <c r="G13" s="130" t="s">
+      <c r="E13" s="130"/>
+      <c r="G13" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
-      <c r="L13" s="130" t="s">
+      <c r="H13" s="131"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="130"/>
+      <c r="L13" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="130"/>
-      <c r="N13" s="131">
+      <c r="M13" s="131"/>
+      <c r="N13" s="129">
         <v>3800</v>
       </c>
-      <c r="O13" s="132"/>
-      <c r="Q13" s="130" t="s">
+      <c r="O13" s="130"/>
+      <c r="Q13" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="130"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="132"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="130"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131" t="s">
+      <c r="C14" s="131"/>
+      <c r="D14" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="G14" s="130" t="s">
+      <c r="E14" s="130"/>
+      <c r="G14" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="130"/>
+      <c r="H14" s="131"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="130" t="s">
+      <c r="L14" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="130"/>
-      <c r="N14" s="131">
+      <c r="M14" s="131"/>
+      <c r="N14" s="129">
         <v>61</v>
       </c>
-      <c r="O14" s="132"/>
-      <c r="Q14" s="130" t="s">
+      <c r="O14" s="130"/>
+      <c r="Q14" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="130"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="132"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="130"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131">
+      <c r="C15" s="131"/>
+      <c r="D15" s="129">
         <v>5000</v>
       </c>
-      <c r="E15" s="132"/>
-      <c r="G15" s="130" t="s">
+      <c r="E15" s="130"/>
+      <c r="G15" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="132"/>
-      <c r="L15" s="130" t="s">
+      <c r="H15" s="131"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
+      <c r="L15" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="130"/>
-      <c r="N15" s="131" t="s">
+      <c r="M15" s="131"/>
+      <c r="N15" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="132"/>
-      <c r="Q15" s="130" t="s">
+      <c r="O15" s="130"/>
+      <c r="Q15" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="130"/>
+      <c r="R15" s="131"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="128" t="s">
+      <c r="C16" s="126"/>
+      <c r="D16" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="G16" s="127" t="s">
+      <c r="E16" s="128"/>
+      <c r="G16" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="129"/>
-      <c r="L16" s="130" t="s">
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="L16" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="130"/>
-      <c r="N16" s="131">
+      <c r="M16" s="131"/>
+      <c r="N16" s="129">
         <v>5000</v>
       </c>
-      <c r="O16" s="132"/>
-      <c r="Q16" s="130" t="s">
+      <c r="O16" s="130"/>
+      <c r="Q16" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="130"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="132"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="130"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="127" t="s">
+      <c r="L17" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128" t="s">
+      <c r="M17" s="126"/>
+      <c r="N17" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="129"/>
-      <c r="Q17" s="127" t="s">
+      <c r="O17" s="128"/>
+      <c r="Q17" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="127"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="129"/>
+      <c r="R17" s="126"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="128"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -3171,541 +3171,541 @@
       <c r="H22" s="124"/>
       <c r="I22" s="124"/>
       <c r="J22" s="124"/>
-      <c r="L22" s="126" t="s">
+      <c r="L22" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
       <c r="Q22" s="124" t="s">
         <v>188</v>
       </c>
       <c r="R22" s="124"/>
       <c r="S22" s="124"/>
       <c r="T22" s="124"/>
-      <c r="V22" s="126" t="s">
+      <c r="V22" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="122">
+      <c r="C23" s="117"/>
+      <c r="D23" s="123">
         <v>43209</v>
       </c>
       <c r="E23" s="125"/>
-      <c r="G23" s="116" t="s">
+      <c r="G23" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="122">
+      <c r="H23" s="117"/>
+      <c r="I23" s="123">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="J23" s="125"/>
-      <c r="L23" s="116" t="s">
+      <c r="L23" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="116"/>
-      <c r="N23" s="122">
+      <c r="M23" s="117"/>
+      <c r="N23" s="123">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="O23" s="125"/>
-      <c r="Q23" s="116" t="s">
+      <c r="Q23" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="116"/>
-      <c r="S23" s="122">
+      <c r="R23" s="117"/>
+      <c r="S23" s="123">
         <f ca="1">TODAY()-1</f>
-        <v>43214</v>
+        <v>43216</v>
       </c>
       <c r="T23" s="125"/>
-      <c r="V23" s="116" t="s">
+      <c r="V23" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="W23" s="116"/>
-      <c r="X23" s="122">
+      <c r="W23" s="117"/>
+      <c r="X23" s="123">
         <f ca="1">TODAY()-1</f>
-        <v>43214</v>
+        <v>43216</v>
       </c>
       <c r="Y23" s="125"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117" t="s">
+      <c r="C24" s="117"/>
+      <c r="D24" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="G24" s="116" t="s">
+      <c r="E24" s="119"/>
+      <c r="G24" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117" t="s">
+      <c r="H24" s="117"/>
+      <c r="I24" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="118"/>
-      <c r="L24" s="116" t="s">
+      <c r="J24" s="119"/>
+      <c r="L24" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="116"/>
-      <c r="N24" s="117" t="s">
+      <c r="M24" s="117"/>
+      <c r="N24" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="118"/>
-      <c r="Q24" s="116" t="s">
+      <c r="O24" s="119"/>
+      <c r="Q24" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="116"/>
-      <c r="S24" s="117" t="s">
+      <c r="R24" s="117"/>
+      <c r="S24" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="118"/>
-      <c r="V24" s="116" t="s">
+      <c r="T24" s="119"/>
+      <c r="V24" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="116"/>
-      <c r="X24" s="117" t="s">
+      <c r="W24" s="117"/>
+      <c r="X24" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="118"/>
+      <c r="Y24" s="119"/>
     </row>
     <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117" t="s">
+      <c r="C25" s="117"/>
+      <c r="D25" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="G25" s="116" t="s">
+      <c r="E25" s="119"/>
+      <c r="G25" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="117" t="s">
+      <c r="H25" s="117"/>
+      <c r="I25" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="118"/>
-      <c r="L25" s="116" t="s">
+      <c r="J25" s="119"/>
+      <c r="L25" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="116"/>
-      <c r="N25" s="117" t="s">
+      <c r="M25" s="117"/>
+      <c r="N25" s="118" t="s">
         <v>195</v>
       </c>
-      <c r="O25" s="118"/>
-      <c r="Q25" s="116" t="s">
+      <c r="O25" s="119"/>
+      <c r="Q25" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="116"/>
-      <c r="S25" s="117" t="s">
+      <c r="R25" s="117"/>
+      <c r="S25" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="T25" s="118"/>
-      <c r="V25" s="116" t="s">
+      <c r="T25" s="119"/>
+      <c r="V25" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="116"/>
-      <c r="X25" s="117" t="s">
+      <c r="W25" s="117"/>
+      <c r="X25" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" s="118"/>
+      <c r="Y25" s="119"/>
     </row>
     <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117">
+      <c r="C26" s="117"/>
+      <c r="D26" s="118">
         <f>D31*D33</f>
         <v>290000</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="G26" s="116" t="s">
+      <c r="E26" s="119"/>
+      <c r="G26" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="117">
+      <c r="H26" s="117"/>
+      <c r="I26" s="118">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="118"/>
-      <c r="L26" s="116" t="s">
+      <c r="J26" s="119"/>
+      <c r="L26" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="116"/>
-      <c r="N26" s="117">
+      <c r="M26" s="117"/>
+      <c r="N26" s="118">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="118"/>
-      <c r="Q26" s="116" t="s">
+      <c r="O26" s="119"/>
+      <c r="Q26" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="116"/>
-      <c r="S26" s="117">
+      <c r="R26" s="117"/>
+      <c r="S26" s="118">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="V26" s="116" t="s">
+      <c r="T26" s="119"/>
+      <c r="V26" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="116"/>
-      <c r="X26" s="117">
+      <c r="W26" s="117"/>
+      <c r="X26" s="118">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="118"/>
+      <c r="Y26" s="119"/>
     </row>
     <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117" t="s">
+      <c r="C27" s="117"/>
+      <c r="D27" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="118"/>
+      <c r="E27" s="119"/>
       <c r="F27" s="100">
         <f>1160*250</f>
         <v>290000</v>
       </c>
-      <c r="G27" s="116" t="s">
+      <c r="G27" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117" t="s">
+      <c r="H27" s="117"/>
+      <c r="I27" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="J27" s="118"/>
-      <c r="L27" s="116" t="s">
+      <c r="J27" s="119"/>
+      <c r="L27" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="116"/>
-      <c r="N27" s="117" t="s">
+      <c r="M27" s="117"/>
+      <c r="N27" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="118"/>
-      <c r="Q27" s="116" t="s">
+      <c r="O27" s="119"/>
+      <c r="Q27" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="116"/>
-      <c r="S27" s="117" t="s">
+      <c r="R27" s="117"/>
+      <c r="S27" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="118"/>
-      <c r="V27" s="116" t="s">
+      <c r="T27" s="119"/>
+      <c r="V27" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="116"/>
-      <c r="X27" s="117" t="s">
+      <c r="W27" s="117"/>
+      <c r="X27" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="118"/>
+      <c r="Y27" s="119"/>
     </row>
     <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="122">
+      <c r="C28" s="117"/>
+      <c r="D28" s="123">
         <v>43222</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="G28" s="116" t="s">
+      <c r="E28" s="119"/>
+      <c r="G28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="122">
+      <c r="H28" s="117"/>
+      <c r="I28" s="123">
         <v>43182</v>
       </c>
-      <c r="J28" s="118"/>
-      <c r="L28" s="116" t="s">
+      <c r="J28" s="119"/>
+      <c r="L28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="116"/>
-      <c r="N28" s="122">
+      <c r="M28" s="117"/>
+      <c r="N28" s="123">
         <v>43219</v>
       </c>
-      <c r="O28" s="118"/>
-      <c r="Q28" s="116" t="s">
+      <c r="O28" s="119"/>
+      <c r="Q28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="116"/>
-      <c r="S28" s="122">
+      <c r="R28" s="117"/>
+      <c r="S28" s="123">
         <v>43201</v>
       </c>
-      <c r="T28" s="118"/>
-      <c r="V28" s="116" t="s">
+      <c r="T28" s="119"/>
+      <c r="V28" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="116"/>
-      <c r="X28" s="122">
+      <c r="W28" s="117"/>
+      <c r="X28" s="123">
         <v>43201</v>
       </c>
-      <c r="Y28" s="118"/>
+      <c r="Y28" s="119"/>
     </row>
     <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117">
+      <c r="C29" s="117"/>
+      <c r="D29" s="118">
         <v>108500</v>
       </c>
-      <c r="E29" s="118"/>
-      <c r="G29" s="116" t="s">
+      <c r="E29" s="119"/>
+      <c r="G29" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="117">
+      <c r="H29" s="117"/>
+      <c r="I29" s="118">
         <v>3856</v>
       </c>
-      <c r="J29" s="118"/>
-      <c r="L29" s="116" t="s">
+      <c r="J29" s="119"/>
+      <c r="L29" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="116"/>
-      <c r="N29" s="117">
+      <c r="M29" s="117"/>
+      <c r="N29" s="118">
         <v>3760</v>
       </c>
-      <c r="O29" s="118"/>
-      <c r="Q29" s="116" t="s">
+      <c r="O29" s="119"/>
+      <c r="Q29" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="116"/>
-      <c r="S29" s="117">
+      <c r="R29" s="117"/>
+      <c r="S29" s="118">
         <v>524</v>
       </c>
-      <c r="T29" s="118"/>
-      <c r="V29" s="116" t="s">
+      <c r="T29" s="119"/>
+      <c r="V29" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="116"/>
-      <c r="X29" s="117">
+      <c r="W29" s="117"/>
+      <c r="X29" s="118">
         <v>524</v>
       </c>
-      <c r="Y29" s="118"/>
+      <c r="Y29" s="119"/>
     </row>
     <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117">
+      <c r="C30" s="117"/>
+      <c r="D30" s="118">
         <v>110000</v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="G30" s="116" t="s">
+      <c r="E30" s="119"/>
+      <c r="G30" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="117">
+      <c r="H30" s="117"/>
+      <c r="I30" s="118">
         <v>3930</v>
       </c>
-      <c r="J30" s="118"/>
-      <c r="L30" s="116" t="s">
+      <c r="J30" s="119"/>
+      <c r="L30" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="116"/>
-      <c r="N30" s="117">
+      <c r="M30" s="117"/>
+      <c r="N30" s="118">
         <v>3700</v>
       </c>
-      <c r="O30" s="118"/>
-      <c r="Q30" s="116" t="s">
+      <c r="O30" s="119"/>
+      <c r="Q30" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="116"/>
-      <c r="S30" s="117">
+      <c r="R30" s="117"/>
+      <c r="S30" s="118">
         <v>524</v>
       </c>
-      <c r="T30" s="118"/>
-      <c r="V30" s="116" t="s">
+      <c r="T30" s="119"/>
+      <c r="V30" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="116"/>
-      <c r="X30" s="117">
+      <c r="W30" s="117"/>
+      <c r="X30" s="118">
         <v>524</v>
       </c>
-      <c r="Y30" s="118"/>
+      <c r="Y30" s="119"/>
     </row>
     <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117">
+      <c r="C31" s="117"/>
+      <c r="D31" s="118">
         <v>1160</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="G31" s="116" t="s">
+      <c r="E31" s="119"/>
+      <c r="G31" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="117">
+      <c r="H31" s="117"/>
+      <c r="I31" s="118">
         <v>27.18</v>
       </c>
-      <c r="J31" s="118"/>
-      <c r="L31" s="116" t="s">
+      <c r="J31" s="119"/>
+      <c r="L31" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="116"/>
-      <c r="N31" s="117">
+      <c r="M31" s="117"/>
+      <c r="N31" s="118">
         <v>55</v>
       </c>
-      <c r="O31" s="118"/>
-      <c r="Q31" s="116" t="s">
+      <c r="O31" s="119"/>
+      <c r="Q31" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="116"/>
-      <c r="S31" s="117">
+      <c r="R31" s="117"/>
+      <c r="S31" s="118">
         <v>23.58</v>
       </c>
-      <c r="T31" s="118"/>
-      <c r="V31" s="116" t="s">
+      <c r="T31" s="119"/>
+      <c r="V31" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="116"/>
-      <c r="X31" s="117">
+      <c r="W31" s="117"/>
+      <c r="X31" s="118">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="118"/>
+      <c r="Y31" s="119"/>
     </row>
     <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117" t="s">
+      <c r="C32" s="117"/>
+      <c r="D32" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="G32" s="116" t="s">
+      <c r="E32" s="119"/>
+      <c r="G32" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="117" t="s">
+      <c r="H32" s="117"/>
+      <c r="I32" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="118"/>
-      <c r="L32" s="116" t="s">
+      <c r="J32" s="119"/>
+      <c r="L32" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="116"/>
-      <c r="N32" s="117" t="s">
+      <c r="M32" s="117"/>
+      <c r="N32" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="118"/>
-      <c r="Q32" s="116" t="s">
+      <c r="O32" s="119"/>
+      <c r="Q32" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="116"/>
-      <c r="S32" s="117" t="s">
+      <c r="R32" s="117"/>
+      <c r="S32" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="T32" s="118"/>
-      <c r="V32" s="116" t="s">
+      <c r="T32" s="119"/>
+      <c r="V32" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="116"/>
-      <c r="X32" s="117" t="s">
+      <c r="W32" s="117"/>
+      <c r="X32" s="118" t="s">
         <v>192</v>
       </c>
-      <c r="Y32" s="118"/>
+      <c r="Y32" s="119"/>
     </row>
     <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117">
+      <c r="C33" s="117"/>
+      <c r="D33" s="118">
         <v>250</v>
       </c>
-      <c r="E33" s="118"/>
-      <c r="G33" s="116" t="s">
+      <c r="E33" s="119"/>
+      <c r="G33" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="117">
+      <c r="H33" s="117"/>
+      <c r="I33" s="118">
         <v>10000</v>
       </c>
-      <c r="J33" s="118"/>
-      <c r="L33" s="116" t="s">
+      <c r="J33" s="119"/>
+      <c r="L33" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="117">
+      <c r="M33" s="117"/>
+      <c r="N33" s="118">
         <v>5000</v>
       </c>
-      <c r="O33" s="118"/>
-      <c r="Q33" s="116" t="s">
+      <c r="O33" s="119"/>
+      <c r="Q33" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="116"/>
-      <c r="S33" s="117">
+      <c r="R33" s="117"/>
+      <c r="S33" s="118">
         <v>10000</v>
       </c>
-      <c r="T33" s="118"/>
-      <c r="V33" s="116" t="s">
+      <c r="T33" s="119"/>
+      <c r="V33" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="116"/>
-      <c r="X33" s="117">
+      <c r="W33" s="117"/>
+      <c r="X33" s="118">
         <v>10000</v>
       </c>
-      <c r="Y33" s="118"/>
+      <c r="Y33" s="119"/>
     </row>
     <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="119"/>
-      <c r="D34" s="120" t="s">
+      <c r="C34" s="120"/>
+      <c r="D34" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="121"/>
-      <c r="G34" s="119" t="s">
+      <c r="E34" s="122"/>
+      <c r="G34" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="120" t="s">
+      <c r="H34" s="120"/>
+      <c r="I34" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="121"/>
-      <c r="L34" s="119" t="s">
+      <c r="J34" s="122"/>
+      <c r="L34" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="119"/>
-      <c r="N34" s="120" t="s">
+      <c r="M34" s="120"/>
+      <c r="N34" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="121"/>
-      <c r="Q34" s="119" t="s">
+      <c r="O34" s="122"/>
+      <c r="Q34" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="119"/>
-      <c r="S34" s="120" t="s">
+      <c r="R34" s="120"/>
+      <c r="S34" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="121"/>
-      <c r="V34" s="119" t="s">
+      <c r="T34" s="122"/>
+      <c r="V34" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="119"/>
-      <c r="X34" s="120" t="s">
+      <c r="W34" s="120"/>
+      <c r="X34" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="121"/>
+      <c r="Y34" s="122"/>
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
@@ -3735,475 +3735,617 @@
       <c r="T36" s="124"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="122"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="123"/>
       <c r="E37" s="125"/>
-      <c r="G37" s="116" t="s">
+      <c r="G37" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="122">
+      <c r="H37" s="117"/>
+      <c r="I37" s="123">
         <v>43207</v>
       </c>
       <c r="J37" s="125"/>
-      <c r="L37" s="116" t="s">
+      <c r="L37" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="122">
+      <c r="M37" s="117"/>
+      <c r="N37" s="123">
         <v>43214</v>
       </c>
       <c r="O37" s="125"/>
-      <c r="Q37" s="116" t="s">
+      <c r="Q37" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="R37" s="116"/>
-      <c r="S37" s="122">
+      <c r="R37" s="117"/>
+      <c r="S37" s="123">
         <v>43209</v>
       </c>
       <c r="T37" s="125"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="116" t="s">
+      <c r="B38" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="118"/>
-      <c r="G38" s="116" t="s">
+      <c r="C38" s="117"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="119"/>
+      <c r="G38" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="117" t="s">
+      <c r="H38" s="117"/>
+      <c r="I38" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="J38" s="118"/>
-      <c r="L38" s="116" t="s">
+      <c r="J38" s="119"/>
+      <c r="L38" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="116"/>
-      <c r="N38" s="117" t="s">
+      <c r="M38" s="117"/>
+      <c r="N38" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="O38" s="118"/>
-      <c r="Q38" s="116" t="s">
+      <c r="O38" s="119"/>
+      <c r="Q38" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="R38" s="116"/>
-      <c r="S38" s="117" t="s">
+      <c r="R38" s="117"/>
+      <c r="S38" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="T38" s="118"/>
+      <c r="T38" s="119"/>
     </row>
     <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="118"/>
-      <c r="G39" s="116" t="s">
+      <c r="C39" s="117"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="119"/>
+      <c r="G39" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="116"/>
-      <c r="I39" s="117" t="s">
+      <c r="H39" s="117"/>
+      <c r="I39" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="J39" s="118"/>
-      <c r="L39" s="116" t="s">
+      <c r="J39" s="119"/>
+      <c r="L39" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="116"/>
-      <c r="N39" s="117" t="s">
+      <c r="M39" s="117"/>
+      <c r="N39" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="118"/>
-      <c r="Q39" s="116" t="s">
+      <c r="O39" s="119"/>
+      <c r="Q39" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="R39" s="116"/>
-      <c r="S39" s="117" t="s">
+      <c r="R39" s="117"/>
+      <c r="S39" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="T39" s="118"/>
+      <c r="T39" s="119"/>
     </row>
     <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="116"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="118"/>
-      <c r="G40" s="116" t="s">
+      <c r="C40" s="117"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119"/>
+      <c r="G40" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="117">
+      <c r="H40" s="117"/>
+      <c r="I40" s="118">
         <f>I45*I47</f>
         <v>1600000</v>
       </c>
-      <c r="J40" s="118"/>
-      <c r="L40" s="116" t="s">
+      <c r="J40" s="119"/>
+      <c r="L40" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="116"/>
-      <c r="N40" s="117">
+      <c r="M40" s="117"/>
+      <c r="N40" s="118">
         <f>N45*N47</f>
         <v>2117500</v>
       </c>
-      <c r="O40" s="118"/>
-      <c r="Q40" s="116" t="s">
+      <c r="O40" s="119"/>
+      <c r="Q40" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="R40" s="116"/>
-      <c r="S40" s="117">
+      <c r="R40" s="117"/>
+      <c r="S40" s="118">
         <f>S45*S47</f>
         <v>1045200</v>
       </c>
-      <c r="T40" s="118"/>
+      <c r="T40" s="119"/>
     </row>
     <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="118"/>
-      <c r="G41" s="116" t="s">
+      <c r="C41" s="117"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="119"/>
+      <c r="G41" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="116"/>
-      <c r="I41" s="117" t="s">
+      <c r="H41" s="117"/>
+      <c r="I41" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="J41" s="118"/>
-      <c r="L41" s="116" t="s">
+      <c r="J41" s="119"/>
+      <c r="L41" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="116"/>
-      <c r="N41" s="117" t="s">
+      <c r="M41" s="117"/>
+      <c r="N41" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="O41" s="118"/>
-      <c r="Q41" s="116" t="s">
+      <c r="O41" s="119"/>
+      <c r="Q41" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="116"/>
-      <c r="S41" s="117" t="s">
+      <c r="R41" s="117"/>
+      <c r="S41" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="T41" s="118"/>
+      <c r="T41" s="119"/>
     </row>
     <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="118"/>
-      <c r="G42" s="116" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="119"/>
+      <c r="G42" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="122">
+      <c r="H42" s="117"/>
+      <c r="I42" s="123">
         <v>43294</v>
       </c>
-      <c r="J42" s="118"/>
-      <c r="L42" s="116" t="s">
+      <c r="J42" s="119"/>
+      <c r="L42" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="116"/>
-      <c r="N42" s="122">
+      <c r="M42" s="117"/>
+      <c r="N42" s="123">
         <v>43266</v>
       </c>
-      <c r="O42" s="118"/>
-      <c r="Q42" s="116" t="s">
+      <c r="O42" s="119"/>
+      <c r="Q42" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="R42" s="116"/>
-      <c r="S42" s="122">
+      <c r="R42" s="117"/>
+      <c r="S42" s="123">
         <v>43266</v>
       </c>
-      <c r="T42" s="118"/>
+      <c r="T42" s="119"/>
     </row>
     <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="118"/>
-      <c r="G43" s="116" t="s">
+      <c r="C43" s="117"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="119"/>
+      <c r="G43" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117">
+      <c r="H43" s="117"/>
+      <c r="I43" s="118">
         <v>15005</v>
       </c>
-      <c r="J43" s="118"/>
-      <c r="L43" s="116" t="s">
+      <c r="J43" s="119"/>
+      <c r="L43" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="123"/>
-      <c r="N43" s="117">
+      <c r="M43" s="138"/>
+      <c r="N43" s="118">
         <v>14535</v>
       </c>
-      <c r="O43" s="118"/>
-      <c r="Q43" s="116" t="s">
+      <c r="O43" s="119"/>
+      <c r="Q43" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="R43" s="116"/>
-      <c r="S43" s="117">
+      <c r="R43" s="117"/>
+      <c r="S43" s="118">
         <v>15250</v>
       </c>
-      <c r="T43" s="118"/>
+      <c r="T43" s="119"/>
     </row>
     <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="116"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="118"/>
-      <c r="G44" s="116" t="s">
+      <c r="C44" s="117"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="119"/>
+      <c r="G44" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="116"/>
-      <c r="I44" s="117">
+      <c r="H44" s="117"/>
+      <c r="I44" s="118">
         <v>14500</v>
       </c>
-      <c r="J44" s="118"/>
-      <c r="L44" s="116" t="s">
+      <c r="J44" s="119"/>
+      <c r="L44" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="116"/>
-      <c r="N44" s="117">
+      <c r="M44" s="117"/>
+      <c r="N44" s="118">
         <v>14500</v>
       </c>
-      <c r="O44" s="118"/>
-      <c r="Q44" s="116" t="s">
+      <c r="O44" s="119"/>
+      <c r="Q44" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="116"/>
-      <c r="S44" s="117">
+      <c r="R44" s="117"/>
+      <c r="S44" s="118">
         <v>14500</v>
       </c>
-      <c r="T44" s="118"/>
+      <c r="T44" s="119"/>
     </row>
     <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="118"/>
-      <c r="G45" s="116" t="s">
+      <c r="C45" s="117"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="119"/>
+      <c r="G45" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="H45" s="116"/>
-      <c r="I45" s="117">
+      <c r="H45" s="117"/>
+      <c r="I45" s="118">
         <v>320</v>
       </c>
-      <c r="J45" s="118"/>
-      <c r="L45" s="116" t="s">
+      <c r="J45" s="119"/>
+      <c r="L45" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="116"/>
-      <c r="N45" s="117">
+      <c r="M45" s="117"/>
+      <c r="N45" s="118">
         <v>423.5</v>
       </c>
-      <c r="O45" s="118"/>
-      <c r="Q45" s="116" t="s">
+      <c r="O45" s="119"/>
+      <c r="Q45" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="R45" s="116"/>
-      <c r="S45" s="117">
+      <c r="R45" s="117"/>
+      <c r="S45" s="118">
         <v>209.04</v>
       </c>
-      <c r="T45" s="118"/>
+      <c r="T45" s="119"/>
     </row>
     <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="118"/>
-      <c r="G46" s="116" t="s">
+      <c r="C46" s="117"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="119"/>
+      <c r="G46" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="116"/>
-      <c r="I46" s="117" t="s">
+      <c r="H46" s="117"/>
+      <c r="I46" s="118" t="s">
         <v>203</v>
       </c>
-      <c r="J46" s="118"/>
-      <c r="L46" s="116" t="s">
+      <c r="J46" s="119"/>
+      <c r="L46" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="M46" s="116"/>
-      <c r="N46" s="117" t="s">
+      <c r="M46" s="117"/>
+      <c r="N46" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="O46" s="118"/>
-      <c r="Q46" s="116" t="s">
+      <c r="O46" s="119"/>
+      <c r="Q46" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="R46" s="116"/>
-      <c r="S46" s="117" t="s">
+      <c r="R46" s="117"/>
+      <c r="S46" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="T46" s="118"/>
+      <c r="T46" s="119"/>
     </row>
     <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="117" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="118"/>
-      <c r="G47" s="116" t="s">
+      <c r="C47" s="117"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="119"/>
+      <c r="G47" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="116"/>
-      <c r="I47" s="117">
+      <c r="H47" s="117"/>
+      <c r="I47" s="118">
         <v>5000</v>
       </c>
-      <c r="J47" s="118"/>
-      <c r="L47" s="116" t="s">
+      <c r="J47" s="119"/>
+      <c r="L47" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="116"/>
-      <c r="N47" s="117">
+      <c r="M47" s="117"/>
+      <c r="N47" s="118">
         <v>5000</v>
       </c>
-      <c r="O47" s="118"/>
-      <c r="Q47" s="116" t="s">
+      <c r="O47" s="119"/>
+      <c r="Q47" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="R47" s="116"/>
-      <c r="S47" s="117">
+      <c r="R47" s="117"/>
+      <c r="S47" s="118">
         <v>5000</v>
       </c>
-      <c r="T47" s="118"/>
+      <c r="T47" s="119"/>
     </row>
     <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="121"/>
-      <c r="G48" s="119" t="s">
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="122"/>
+      <c r="G48" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="119"/>
-      <c r="I48" s="120" t="s">
+      <c r="H48" s="120"/>
+      <c r="I48" s="121" t="s">
         <v>208</v>
       </c>
-      <c r="J48" s="121"/>
-      <c r="L48" s="119" t="s">
+      <c r="J48" s="122"/>
+      <c r="L48" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="M48" s="119"/>
-      <c r="N48" s="120" t="s">
+      <c r="M48" s="120"/>
+      <c r="N48" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="O48" s="121"/>
-      <c r="Q48" s="119" t="s">
+      <c r="O48" s="122"/>
+      <c r="Q48" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="119"/>
-      <c r="S48" s="120" t="s">
+      <c r="R48" s="120"/>
+      <c r="S48" s="121" t="s">
         <v>208</v>
       </c>
-      <c r="T48" s="121"/>
+      <c r="T48" s="122"/>
     </row>
     <row r="49" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="326">
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
@@ -4228,228 +4370,86 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4462,8 +4462,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4491,10 +4491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -4625,12 +4625,12 @@
         <v>203</v>
       </c>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E32" ca="1" si="0">TODAY()</f>
-        <v>43215</v>
+        <f t="shared" ref="E8:E11" ca="1" si="0">TODAY()</f>
+        <v>43217</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -4648,22 +4648,22 @@
       <c r="K8" s="9">
         <v>0.21</v>
       </c>
-      <c r="L8" s="13" t="e">
+      <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-4.9644307474944753</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="13" t="e">
+      <c r="N8" s="13">
         <f t="shared" ref="N8" si="2">M8/10000*I8*P8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" s="11" t="e">
+        <v>4.9644307474944753</v>
+      </c>
+      <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14635</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -4675,17 +4675,17 @@
       <c r="S8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="14" t="e">
+      <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="13" t="e">
+        <v>3.3921631346050396E-4</v>
+      </c>
+      <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V8" s="13" t="e">
+        <v>9.3031015381939142E-3</v>
+      </c>
+      <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-1.8356195415126919</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4701,11 +4701,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G9" s="10">
         <v>11500</v>
@@ -4723,22 +4723,22 @@
       <c r="K9" s="9">
         <v>0.21</v>
       </c>
-      <c r="L9" s="13" t="e">
+      <c r="L9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>#VALUE!</v>
+        <v>-4.9644307474944753</v>
       </c>
       <c r="M9" s="15"/>
-      <c r="N9" s="13" t="e">
+      <c r="N9" s="13">
         <f t="shared" ref="N9:N10" si="6">M9/10000*I9*P9</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
         <f>IF(L9&lt;=0,ABS(L9)+N9,L9-N9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P9" s="11" t="e">
+        <v>4.9644307474944753</v>
+      </c>
+      <c r="P9" s="11">
         <f>RTD("wdf.rtq",,D9,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14635</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>85</v>
@@ -4750,17 +4750,17 @@
       <c r="S9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="14" t="e">
+      <c r="T9" s="14">
         <f t="shared" ref="T9" si="8">O9/P9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U9" s="13" t="e">
+        <v>3.3921631346050396E-4</v>
+      </c>
+      <c r="U9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V9" s="13" t="e">
+        <v>9.3031015381939142E-3</v>
+      </c>
+      <c r="V9" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q9,$P9,$G9,$I9,$C$3,$J9,$K9,$C$4)*R9</f>
-        <v>#VALUE!</v>
+        <v>-1.8356195415126919</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11" ca="1" si="9">E11+H11</f>
@@ -4792,11 +4792,11 @@
         <v>3700</v>
       </c>
       <c r="H11" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="12">
         <f>H11/365</f>
-        <v>1.9178082191780823E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="L11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-77.722369716806043</v>
+        <v>-70.900193103273523</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="13">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="O11" s="13">
         <f>IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>77.722369716806043</v>
+        <v>70.900193103273523</v>
       </c>
       <c r="P11" s="11">
         <v>3650</v>
@@ -4832,23 +4832,23 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" ref="T11" si="12">O11/P11</f>
-        <v>2.1293799922412614E-2</v>
+        <v>1.9424710439253021E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.65249462902556843</v>
+        <v>0.68074900793817505</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-1.8658856053536965</v>
-      </c>
-      <c r="X11" s="141">
+        <v>-1.5251353378048407</v>
+      </c>
+      <c r="X11" s="115">
         <f>P11-G11</f>
         <v>-50</v>
       </c>
       <c r="Y11" s="6">
         <f>500*U11</f>
-        <v>326.24731451278421</v>
+        <v>340.37450396908753</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5522,10 +5522,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -5652,11 +5652,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -5791,11 +5791,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43230</v>
+        <v>43232</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>447.5</v>
+        <v>440.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -5884,17 +5884,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.8444044008002294</v>
+        <v>-3.7138891825560165</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.8444044008002294</v>
+        <v>3.7138891825560165</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>467.5</v>
+        <v>460.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -5909,11 +5909,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22663984182500485</v>
+        <v>0.22328996288010217</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.28523320493926008</v>
+        <v>-0.27860046856634568</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -5929,15 +5929,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43230</v>
+        <v>43232</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>497.5</v>
+        <v>490.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -5956,17 +5956,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.1104496412957161</v>
+        <v>2.0174811202873286</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.1104496412957161</v>
+        <v>2.0174811202873286</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>467.5</v>
+        <v>460.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -5981,11 +5981,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15171867237171455</v>
+        <v>0.14808762153535326</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22249743647176956</v>
+        <v>0.21565350915010484</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6002,15 +6002,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43230</v>
+        <v>43232</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>447.5|497.5</v>
+        <v>440.5|490.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -6024,7 +6024,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7339547595045133</v>
+        <v>-1.6964080622686879</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -6035,11 +6035,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7339547595045133</v>
+        <v>1.6964080622686879</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>467.5</v>
+        <v>460.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -6048,15 +6048,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7089941379775684E-3</v>
+        <v>3.6838394403228836E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.3783585141967194</v>
+        <v>0.37137758441545543</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2735768467490516E-2</v>
+        <v>-6.2946959416240844E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6072,11 +6072,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -6095,19 +6095,19 @@
         <f>K15+0.02</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L14" s="43" t="e">
+      <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>#VALUE!</v>
+        <v>-271.06318025121277</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
-      <c r="O14" s="43" t="e">
+      <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P14" s="110" t="e">
+        <v>271.06318025121277</v>
+      </c>
+      <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3593</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -6120,13 +6120,13 @@
         <v>20</v>
       </c>
       <c r="T14" s="50"/>
-      <c r="U14" s="43" t="e">
+      <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V14" s="43" t="e">
+        <v>-0.61036146014430415</v>
+      </c>
+      <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>#VALUE!</v>
+        <v>-6.8316494317911065</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -6167,19 +6167,19 @@
       <c r="K15" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L15" s="51" t="e">
+      <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
+        <v>73.864114379198327</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
-      <c r="O15" s="51" t="e">
+      <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="94" t="e">
+        <v>73.864114379198327</v>
+      </c>
+      <c r="P15" s="94">
         <f>P14</f>
-        <v>#N/A</v>
+        <v>3593</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -6192,13 +6192,13 @@
         <v>151</v>
       </c>
       <c r="T15" s="58"/>
-      <c r="U15" s="51" t="e">
+      <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V15" s="51" t="e">
+        <v>-0.23403059763040801</v>
+      </c>
+      <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
+        <v>5.4869746740674259</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6215,11 +6215,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -6235,41 +6235,41 @@
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="60"/>
-      <c r="L16" s="59" t="e">
+      <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>#VALUE!</v>
+        <v>-197.19906587201444</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
       </c>
-      <c r="N16" s="59" t="e">
+      <c r="N16" s="59">
         <f>M16/10000*I16*P16</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="59" t="e">
+        <v>0</v>
+      </c>
+      <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P16" s="111" t="e">
+        <v>197.19906587201444</v>
+      </c>
+      <c r="P16" s="111">
         <f>P15</f>
-        <v>#N/A</v>
+        <v>3593</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
       <c r="S16" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="64" t="e">
+      <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U16" s="64" t="e">
+        <v>5.4884237648765502E-2</v>
+      </c>
+      <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V16" s="64" t="e">
+        <v>-0.84439205777471216</v>
+      </c>
+      <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>#VALUE!</v>
+        <v>-1.3446747577236806</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -6286,15 +6286,15 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G18" s="113">
         <f>P18</f>
-        <v>51910</v>
+        <v>51950</v>
       </c>
       <c r="H18" s="44">
         <v>91</v>
@@ -6312,17 +6312,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-1954.1621420720294</v>
+        <v>-1955.6679499256825</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>1954.1621420720294</v>
+        <v>1955.6679499256825</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>51910</v>
+        <v>51950</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>39</v>
@@ -6337,11 +6337,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.51633565344673116</v>
+        <v>-0.5163356527191354</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-102.77341534713923</v>
+        <v>-102.85260888622179</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -6357,11 +6357,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G19" s="52">
         <v>52000</v>
@@ -6383,17 +6383,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>1859.9818030899369</v>
+        <v>1880.3840511556809</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>1859.9818030899369</v>
+        <v>1880.3840511556809</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>51910</v>
+        <v>51950</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -6408,11 +6408,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.50840170151786879</v>
+        <v>0.51171013201383175</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>102.8503407552198</v>
+        <v>102.90250921271399</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6428,15 +6428,15 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
-        <v>51910|52000</v>
+        <v>51950|52000</v>
       </c>
       <c r="H20" s="60">
         <f>H19</f>
@@ -6450,7 +6450,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>-94.180338982092508</v>
+        <v>-75.283898770001542</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -6461,11 +6461,11 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>94.180338982092508</v>
+        <v>75.283898770001542</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>51910</v>
+        <v>51950</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
@@ -6474,15 +6474,15 @@
       </c>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>1.814300500521913E-3</v>
+        <v>1.4491607077959873E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-7.9339519288623706E-3</v>
+        <v>-4.6255207053036429E-3</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>7.6925408080569468E-2</v>
+        <v>4.9900326492206659E-2</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -6498,11 +6498,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="G21" s="113">
         <v>460</v>
@@ -6522,17 +6522,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-14.761034158492862</v>
+        <v>-17.875177116530836</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>14.761034158492862</v>
+        <v>17.875177116530836</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>467.5</v>
+        <v>460.5</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -6547,11 +6547,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>0.41499334665076049</v>
+        <v>0.47512182531050939</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.52184101412306916</v>
+        <v>-0.52486382056011394</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -6568,11 +6568,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="G22" s="52">
         <v>500</v>
@@ -6594,17 +6594,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>5.9814448383334735</v>
+        <v>4.4350170912779134</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>5.9814448383334735</v>
+        <v>4.4350170912779134</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>467.5</v>
+        <v>460.5</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -6619,11 +6619,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0.24572516531478072</v>
+        <v>0.19701421691138421</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0.42159432159035504</v>
+        <v>0.3659272619497429</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6640,11 +6640,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -6662,7 +6662,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>-8.7795893201593884</v>
+        <v>-13.440160025252922</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -6673,26 +6673,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>8.7795893201593884</v>
+        <v>13.440160025252922</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>467.5</v>
+        <v>460.5</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>1.8779870203549494E-2</v>
+        <v>2.918601525570667E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>0.66071851196554121</v>
+        <v>0.6721360422218936</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>-0.10024669253271412</v>
+        <v>-0.15893655861037104</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6763,11 +6763,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -7055,11 +7055,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -7137,11 +7137,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -7219,11 +7219,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -7301,11 +7301,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -7383,11 +7383,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -7465,11 +7465,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -8155,10 +8155,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -8304,9 +8304,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3954</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -8314,20 +8314,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19" t="e">
+      <c r="K8" s="19">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>#VALUE!</v>
+        <v>3854.5749992553683</v>
       </c>
       <c r="L8" s="36">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -8342,32 +8342,32 @@
       <c r="R8" s="23">
         <v>0.3</v>
       </c>
-      <c r="S8" s="24" t="e">
+      <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>#VALUE!</v>
+        <v>-79.08</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" s="24" t="e">
+        <v>2.5998904109589041</v>
+      </c>
+      <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W8" s="26" t="e">
+        <v>81.679890410958905</v>
+      </c>
+      <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X8" s="24" t="e">
+        <v>2.0657534246575342E-2</v>
+      </c>
+      <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -8409,11 +8409,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43395</v>
+        <v>43397</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -8521,11 +8521,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -8608,11 +8608,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -8695,11 +8695,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43306</v>
+        <v>43308</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -8869,11 +8869,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -8956,11 +8956,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43398</v>
+        <v>43400</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>
@@ -9861,10 +9861,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="140"/>
+      <c r="C1" s="141"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -9994,20 +9994,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3954</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -10019,32 +10019,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24" t="e">
+      <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>225.80265368112759</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24" t="e">
+      <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="24" t="e">
+        <v>2.5998904109589041</v>
+      </c>
+      <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S8" s="26" t="e">
+        <v>228.40254409208649</v>
+      </c>
+      <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T8" s="24" t="e">
+        <v>5.7764932749642513E-2</v>
+      </c>
+      <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="24" t="e">
+        <v>0.69596202999946399</v>
+      </c>
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>3.9580585382391291</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -10076,11 +10076,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -10146,11 +10146,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43245</v>
+        <v>43247</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
